--- a/Config/Equip.xlsx
+++ b/Config/Equip.xlsx
@@ -1,11 +1,11 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="24701"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="10111"/>
   <workbookPr filterPrivacy="1"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4B1535F3-076F-46B1-A3DD-050947615FA4}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F88F2DD3-CF49-A541-9093-9E83B801DF0E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-98" yWindow="-98" windowWidth="21795" windowHeight="12975" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="760" windowWidth="21800" windowHeight="12980" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="武器" sheetId="2" r:id="rId1"/>
@@ -108,7 +108,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="3" x14ac:knownFonts="1">
+  <fonts count="3">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -438,15 +438,15 @@
   <dimension ref="A1:E9"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F8" sqref="F8"/>
+      <selection activeCell="E10" sqref="E10"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="13.9" x14ac:dyDescent="0.4"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15"/>
   <cols>
-    <col min="3" max="3" width="19.265625" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="19.33203125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" x14ac:dyDescent="0.4">
+    <row r="1" spans="1:5">
       <c r="A1" t="s">
         <v>21</v>
       </c>
@@ -463,7 +463,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="2" spans="1:5" x14ac:dyDescent="0.4">
+    <row r="2" spans="1:5">
       <c r="A2" s="1">
         <v>300001</v>
       </c>
@@ -477,10 +477,10 @@
         <v>0</v>
       </c>
       <c r="E2">
-        <v>-1</v>
-      </c>
-    </row>
-    <row r="3" spans="1:5" x14ac:dyDescent="0.4">
+        <v>9999</v>
+      </c>
+    </row>
+    <row r="3" spans="1:5">
       <c r="A3" s="1">
         <v>300002</v>
       </c>
@@ -494,10 +494,10 @@
         <v>0</v>
       </c>
       <c r="E3">
-        <v>-1</v>
-      </c>
-    </row>
-    <row r="4" spans="1:5" x14ac:dyDescent="0.4">
+        <v>9999</v>
+      </c>
+    </row>
+    <row r="4" spans="1:5">
       <c r="A4" s="1">
         <v>300003</v>
       </c>
@@ -511,10 +511,10 @@
         <v>0</v>
       </c>
       <c r="E4">
-        <v>-1</v>
-      </c>
-    </row>
-    <row r="5" spans="1:5" x14ac:dyDescent="0.4">
+        <v>9999</v>
+      </c>
+    </row>
+    <row r="5" spans="1:5">
       <c r="A5" s="1">
         <v>300004</v>
       </c>
@@ -528,10 +528,10 @@
         <v>0</v>
       </c>
       <c r="E5">
-        <v>-1</v>
-      </c>
-    </row>
-    <row r="6" spans="1:5" x14ac:dyDescent="0.4">
+        <v>9999</v>
+      </c>
+    </row>
+    <row r="6" spans="1:5">
       <c r="A6" s="1">
         <v>300005</v>
       </c>
@@ -545,10 +545,10 @@
         <v>0</v>
       </c>
       <c r="E6">
-        <v>-1</v>
-      </c>
-    </row>
-    <row r="7" spans="1:5" x14ac:dyDescent="0.4">
+        <v>9999</v>
+      </c>
+    </row>
+    <row r="7" spans="1:5">
       <c r="A7" s="1">
         <v>300006</v>
       </c>
@@ -562,10 +562,10 @@
         <v>0</v>
       </c>
       <c r="E7">
-        <v>-1</v>
-      </c>
-    </row>
-    <row r="8" spans="1:5" x14ac:dyDescent="0.4">
+        <v>9999</v>
+      </c>
+    </row>
+    <row r="8" spans="1:5">
       <c r="A8" s="1">
         <v>300007</v>
       </c>
@@ -579,10 +579,10 @@
         <v>0</v>
       </c>
       <c r="E8">
-        <v>-1</v>
-      </c>
-    </row>
-    <row r="9" spans="1:5" x14ac:dyDescent="0.4">
+        <v>9999</v>
+      </c>
+    </row>
+    <row r="9" spans="1:5">
       <c r="A9" s="1">
         <v>300008</v>
       </c>
@@ -596,7 +596,7 @@
         <v>0</v>
       </c>
       <c r="E9">
-        <v>-1</v>
+        <v>9999</v>
       </c>
     </row>
   </sheetData>
@@ -614,9 +614,9 @@
       <selection sqref="A1:B11"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="13.9" x14ac:dyDescent="0.4"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:2" x14ac:dyDescent="0.4">
+    <row r="1" spans="1:2">
       <c r="A1" t="s">
         <v>22</v>
       </c>
@@ -624,7 +624,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="2" spans="1:2" x14ac:dyDescent="0.4">
+    <row r="2" spans="1:2">
       <c r="A2">
         <v>1</v>
       </c>
@@ -632,7 +632,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="3" spans="1:2" x14ac:dyDescent="0.4">
+    <row r="3" spans="1:2">
       <c r="A3">
         <v>2</v>
       </c>
@@ -640,7 +640,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="4" spans="1:2" x14ac:dyDescent="0.4">
+    <row r="4" spans="1:2">
       <c r="A4">
         <v>3</v>
       </c>
@@ -648,7 +648,7 @@
         <v>40</v>
       </c>
     </row>
-    <row r="5" spans="1:2" x14ac:dyDescent="0.4">
+    <row r="5" spans="1:2">
       <c r="A5">
         <v>4</v>
       </c>
@@ -656,7 +656,7 @@
         <v>80</v>
       </c>
     </row>
-    <row r="6" spans="1:2" x14ac:dyDescent="0.4">
+    <row r="6" spans="1:2">
       <c r="A6">
         <v>5</v>
       </c>
@@ -664,7 +664,7 @@
         <v>160</v>
       </c>
     </row>
-    <row r="7" spans="1:2" x14ac:dyDescent="0.4">
+    <row r="7" spans="1:2">
       <c r="A7">
         <v>6</v>
       </c>
@@ -672,7 +672,7 @@
         <v>320</v>
       </c>
     </row>
-    <row r="8" spans="1:2" x14ac:dyDescent="0.4">
+    <row r="8" spans="1:2">
       <c r="A8">
         <v>7</v>
       </c>
@@ -680,7 +680,7 @@
         <v>640</v>
       </c>
     </row>
-    <row r="9" spans="1:2" x14ac:dyDescent="0.4">
+    <row r="9" spans="1:2">
       <c r="A9">
         <v>8</v>
       </c>
@@ -688,7 +688,7 @@
         <v>1280</v>
       </c>
     </row>
-    <row r="10" spans="1:2" x14ac:dyDescent="0.4">
+    <row r="10" spans="1:2">
       <c r="A10">
         <v>9</v>
       </c>
@@ -696,7 +696,7 @@
         <v>2560</v>
       </c>
     </row>
-    <row r="11" spans="1:2" x14ac:dyDescent="0.4">
+    <row r="11" spans="1:2">
       <c r="A11">
         <v>10</v>
       </c>
